--- a/TC_Template/Main.rvl.xlsx
+++ b/TC_Template/Main.rvl.xlsx
@@ -433,7 +433,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="566">
+  <borders count="567">
     <border>
       <left/>
       <right/>
@@ -1006,11 +1006,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="566">
+  <cellXfs count="567">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1577,6 +1578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="563" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="564" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="565" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="566" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1586,7 +1588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -1740,218 +1742,158 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="460"/>
+      <c r="A9" s="457" t="s">
+        <v>67</v>
+      </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="461"/>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>77</v>
-      </c>
+      <c r="A10" s="447"/>
     </row>
     <row r="11">
-      <c r="A11" s="462"/>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>80</v>
-      </c>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="24"/>
     </row>
     <row r="12">
-      <c r="A12" s="463"/>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>80</v>
-      </c>
+      <c r="A12" s="25"/>
+      <c r="B12" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="32"/>
     </row>
     <row r="13">
-      <c r="A13" s="457" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
+      <c r="A13" s="33"/>
+      <c r="B13" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="40"/>
     </row>
     <row r="14">
-      <c r="A14" s="447"/>
+      <c r="A14" s="435"/>
     </row>
     <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="554"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="504"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="499"/>
+      <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26" t="s">
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="145"/>
+      <c r="B18" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="40"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="435"/>
+      <c r="C18" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="148" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="149" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="151" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="152"/>
     </row>
     <row r="19">
-      <c r="A19" s="554"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="504"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="499"/>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="145"/>
-      <c r="B22" s="146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="147" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="148" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="149" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="150" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="151" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="152"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="153"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="160"/>
+      <c r="A19" s="153"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="160"/>
     </row>
   </sheetData>
 </worksheet>
